--- a/장아찌가격정보.xlsx
+++ b/장아찌가격정보.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CPB06GameN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7BA449-FDD0-4F52-B03B-23FF8B320005}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C468B6A-1733-469E-A277-306C787D2E92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="13245" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="2520" windowWidth="21510" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="145">
   <si>
     <t>배가원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -752,10 +752,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방풍초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>풋마늘대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -841,6 +837,90 @@
   </si>
   <si>
     <t>행복한엄마밥상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박쌤찬방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩잎장아찌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마늘쫑장아찌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치팩토리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이고추</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이고추장아찌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이장아찌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비트양파장아찌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새송이버섯장아찌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방풍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버섯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸마늘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두릅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방풍나물장아찌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연근장아찌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비트장아찌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풋마늘장아찌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰취장아찌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두릅장아찌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1217,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M98"/>
+  <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F64" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1251,7 +1331,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -2609,7 +2689,7 @@
         <v>92</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>97</v>
@@ -2630,7 +2710,7 @@
         <v>92</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>97</v>
@@ -2651,7 +2731,7 @@
         <v>92</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>98</v>
@@ -2672,7 +2752,7 @@
         <v>92</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>98</v>
@@ -2693,7 +2773,7 @@
         <v>92</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>87</v>
@@ -2714,7 +2794,7 @@
         <v>92</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>87</v>
@@ -2816,13 +2896,13 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="D76" s="3">
         <v>1000</v>
@@ -2837,13 +2917,13 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="D77" s="3">
         <v>500</v>
@@ -2858,13 +2938,13 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D78" s="3">
         <v>1000</v>
@@ -2879,10 +2959,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>87</v>
@@ -2900,13 +2980,13 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D80" s="3">
         <v>1000</v>
@@ -2921,13 +3001,13 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D81" s="3">
         <v>1000</v>
@@ -2942,13 +3022,13 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D82" s="3">
         <v>1000</v>
@@ -2963,13 +3043,13 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D83" s="3">
         <v>1000</v>
@@ -2990,7 +3070,7 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>23</v>
@@ -3011,7 +3091,7 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>23</v>
@@ -3032,13 +3112,13 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D86" s="3">
         <v>500</v>
@@ -3053,13 +3133,13 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D87" s="3">
         <v>1000</v>
@@ -3074,7 +3154,7 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>42</v>
@@ -3095,7 +3175,7 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>42</v>
@@ -3116,7 +3196,7 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>25</v>
@@ -3137,7 +3217,7 @@
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>25</v>
@@ -3158,10 +3238,10 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>87</v>
@@ -3179,13 +3259,13 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D93" s="3">
         <v>500</v>
@@ -3200,13 +3280,13 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D94" s="3">
         <v>1000</v>
@@ -3221,13 +3301,13 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="C95" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D95" s="3">
         <v>600</v>
@@ -3242,13 +3322,13 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D96" s="3">
         <v>300</v>
@@ -3263,13 +3343,13 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D97" s="3">
         <v>300</v>
@@ -3284,13 +3364,13 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D98" s="3">
         <v>450</v>
@@ -3301,6 +3381,384 @@
       <c r="F98" s="3">
         <f>E98/D98*100</f>
         <v>3333.3333333333335</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D99" s="3">
+        <v>100</v>
+      </c>
+      <c r="E99" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F99" s="3">
+        <f>E99/D99*100</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F100" s="3">
+        <f>E100/D100*100</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F101" s="3">
+        <f>E101/D101*100</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="3">
+        <v>800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F102" s="3">
+        <f>E102/D102*100</f>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D103" s="3">
+        <v>800</v>
+      </c>
+      <c r="E103" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F103" s="3">
+        <f>E103/D103*100</f>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D104" s="3">
+        <v>700</v>
+      </c>
+      <c r="E104" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F104" s="3">
+        <f t="shared" ref="F104:F118" si="2">E104/D104*100</f>
+        <v>2571.4285714285716</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E105" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F105" s="3">
+        <f t="shared" si="2"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D106" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E106" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F106" s="3">
+        <f t="shared" si="2"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D107" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E107" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F107" s="3">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D108" s="3">
+        <v>800</v>
+      </c>
+      <c r="E108" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F108" s="3">
+        <f t="shared" si="2"/>
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D109" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E109" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F109" s="3">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D110" s="3">
+        <v>800</v>
+      </c>
+      <c r="E110" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F110" s="3">
+        <f t="shared" si="2"/>
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D111" s="3">
+        <v>800</v>
+      </c>
+      <c r="E111" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F111" s="3">
+        <f t="shared" si="2"/>
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="3">
+        <v>400</v>
+      </c>
+      <c r="E112" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F112" s="3">
+        <f t="shared" si="2"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D113" s="3">
+        <v>800</v>
+      </c>
+      <c r="E113" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F113" s="3">
+        <f t="shared" si="2"/>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D114" s="3">
+        <v>800</v>
+      </c>
+      <c r="E114" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F114" s="3">
+        <f t="shared" si="2"/>
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D115" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E115" s="3">
+        <v>24000</v>
+      </c>
+      <c r="F115" s="3">
+        <f t="shared" si="2"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D116" s="3">
+        <v>800</v>
+      </c>
+      <c r="E116" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F116" s="3">
+        <f t="shared" si="2"/>
+        <v>2875</v>
       </c>
     </row>
   </sheetData>
